--- a/stock_historical_data/1mo/AMIORG.NS.xlsx
+++ b/stock_historical_data/1mo/AMIORG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B2" t="n">
-        <v>1258</v>
+        <v>903.3930684046726</v>
       </c>
       <c r="C2" t="n">
-        <v>1418.699951171875</v>
+        <v>1424.035321826476</v>
       </c>
       <c r="D2" t="n">
-        <v>998.9500122070312</v>
+        <v>834.894033547615</v>
       </c>
       <c r="E2" t="n">
-        <v>1025.199951171875</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1019.853088378906</v>
-      </c>
+        <v>1273.436767578125</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>10726411</v>
+        <v>35679161</v>
       </c>
       <c r="H2" t="n">
         <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B3" t="n">
-        <v>1031.300048828125</v>
+        <v>1258</v>
       </c>
       <c r="C3" t="n">
-        <v>1077.25</v>
+        <v>1418.699951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>864.1500244140625</v>
+        <v>998.9500122070312</v>
       </c>
       <c r="E3" t="n">
-        <v>902.5</v>
+        <v>1025.199951171875</v>
       </c>
       <c r="F3" t="n">
-        <v>897.7930297851562</v>
+        <v>1019.853088378906</v>
       </c>
       <c r="G3" t="n">
-        <v>3267237</v>
+        <v>10726411</v>
       </c>
       <c r="H3" t="n">
         <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B4" t="n">
-        <v>907.0999755859375</v>
+        <v>1031.300048828125</v>
       </c>
       <c r="C4" t="n">
-        <v>1109.900024414062</v>
+        <v>1077.25</v>
       </c>
       <c r="D4" t="n">
-        <v>858</v>
+        <v>864.1500244140625</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.400024414062</v>
+        <v>902.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.827758789062</v>
+        <v>897.7930297851562</v>
       </c>
       <c r="G4" t="n">
-        <v>6213264</v>
+        <v>3267237</v>
       </c>
       <c r="H4" t="n">
         <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B5" t="n">
-        <v>1074.699951171875</v>
+        <v>907.0999755859375</v>
       </c>
       <c r="C5" t="n">
-        <v>1159</v>
+        <v>1109.900024414062</v>
       </c>
       <c r="D5" t="n">
-        <v>922.1500244140625</v>
+        <v>858</v>
       </c>
       <c r="E5" t="n">
-        <v>992.6500244140625</v>
+        <v>1068.400024414062</v>
       </c>
       <c r="F5" t="n">
-        <v>987.472900390625</v>
+        <v>1062.827758789062</v>
       </c>
       <c r="G5" t="n">
-        <v>4338933</v>
+        <v>6213264</v>
       </c>
       <c r="H5" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B6" t="n">
-        <v>999.9000244140625</v>
+        <v>1074.699951171875</v>
       </c>
       <c r="C6" t="n">
-        <v>1040</v>
+        <v>1159</v>
       </c>
       <c r="D6" t="n">
-        <v>766.0999755859375</v>
+        <v>922.1500244140625</v>
       </c>
       <c r="E6" t="n">
-        <v>868.2999877929688</v>
+        <v>992.6500244140625</v>
       </c>
       <c r="F6" t="n">
-        <v>863.7713623046875</v>
+        <v>987.472900390625</v>
       </c>
       <c r="G6" t="n">
-        <v>2008779</v>
+        <v>4338933</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B7" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D7" t="n">
+        <v>766.0999755859375</v>
+      </c>
+      <c r="E7" t="n">
         <v>868.2999877929688</v>
       </c>
-      <c r="C7" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D7" t="n">
-        <v>850</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1002.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>997.0227661132812</v>
+        <v>863.7713623046875</v>
       </c>
       <c r="G7" t="n">
-        <v>3448486</v>
+        <v>2008779</v>
       </c>
       <c r="H7" t="n">
         <v>2022</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B8" t="n">
-        <v>1001.799987792969</v>
+        <v>868.2999877929688</v>
       </c>
       <c r="C8" t="n">
-        <v>1166.150024414062</v>
+        <v>1021</v>
       </c>
       <c r="D8" t="n">
-        <v>989.4000244140625</v>
+        <v>850</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.349975585938</v>
+        <v>1002.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1128.433837890625</v>
+        <v>997.0227661132812</v>
       </c>
       <c r="G8" t="n">
-        <v>3691393</v>
+        <v>3448486</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B9" t="n">
-        <v>1128</v>
+        <v>1001.799987792969</v>
       </c>
       <c r="C9" t="n">
-        <v>1175.900024414062</v>
+        <v>1166.150024414062</v>
       </c>
       <c r="D9" t="n">
-        <v>822.9000244140625</v>
+        <v>989.4000244140625</v>
       </c>
       <c r="E9" t="n">
-        <v>870.1500244140625</v>
+        <v>1134.349975585938</v>
       </c>
       <c r="F9" t="n">
-        <v>865.6117553710938</v>
+        <v>1128.433837890625</v>
       </c>
       <c r="G9" t="n">
-        <v>2707536</v>
+        <v>3691393</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B10" t="n">
-        <v>875.9500122070312</v>
+        <v>1128</v>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>1175.900024414062</v>
       </c>
       <c r="D10" t="n">
-        <v>825.3499755859375</v>
+        <v>822.9000244140625</v>
       </c>
       <c r="E10" t="n">
-        <v>878.25</v>
+        <v>870.1500244140625</v>
       </c>
       <c r="F10" t="n">
-        <v>873.6694946289062</v>
+        <v>865.6117553710938</v>
       </c>
       <c r="G10" t="n">
-        <v>2405163</v>
+        <v>2707536</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B11" t="n">
-        <v>882.9000244140625</v>
+        <v>875.9500122070312</v>
       </c>
       <c r="C11" t="n">
-        <v>1109.949951171875</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>862</v>
+        <v>825.3499755859375</v>
       </c>
       <c r="E11" t="n">
-        <v>1038.849975585938</v>
+        <v>878.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1033.431884765625</v>
+        <v>873.6694946289062</v>
       </c>
       <c r="G11" t="n">
-        <v>2777217</v>
+        <v>2405163</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B12" t="n">
-        <v>1031</v>
+        <v>882.9000244140625</v>
       </c>
       <c r="C12" t="n">
-        <v>1074.599975585938</v>
+        <v>1109.949951171875</v>
       </c>
       <c r="D12" t="n">
-        <v>952.0499877929688</v>
+        <v>862</v>
       </c>
       <c r="E12" t="n">
-        <v>992.75</v>
+        <v>1038.849975585938</v>
       </c>
       <c r="F12" t="n">
-        <v>990.4539184570312</v>
+        <v>1033.431884765625</v>
       </c>
       <c r="G12" t="n">
-        <v>1766986</v>
+        <v>2777217</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B13" t="n">
-        <v>998.9500122070312</v>
+        <v>1031</v>
       </c>
       <c r="C13" t="n">
-        <v>1154</v>
+        <v>1074.599975585938</v>
       </c>
       <c r="D13" t="n">
-        <v>874.9500122070312</v>
+        <v>952.0499877929688</v>
       </c>
       <c r="E13" t="n">
-        <v>912</v>
+        <v>992.75</v>
       </c>
       <c r="F13" t="n">
-        <v>909.8906860351562</v>
+        <v>990.4539184570312</v>
       </c>
       <c r="G13" t="n">
-        <v>5673912</v>
+        <v>1766986</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B14" t="n">
+        <v>998.9500122070312</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D14" t="n">
+        <v>874.9500122070312</v>
+      </c>
+      <c r="E14" t="n">
         <v>912</v>
       </c>
-      <c r="C14" t="n">
-        <v>967</v>
-      </c>
-      <c r="D14" t="n">
-        <v>894</v>
-      </c>
-      <c r="E14" t="n">
-        <v>949.4500122070312</v>
-      </c>
       <c r="F14" t="n">
-        <v>947.2540893554688</v>
+        <v>909.8906860351562</v>
       </c>
       <c r="G14" t="n">
-        <v>758276</v>
+        <v>5673912</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B15" t="n">
-        <v>953.9500122070312</v>
+        <v>912</v>
       </c>
       <c r="C15" t="n">
-        <v>1018.25</v>
+        <v>967</v>
       </c>
       <c r="D15" t="n">
-        <v>869</v>
+        <v>894</v>
       </c>
       <c r="E15" t="n">
-        <v>974.7000122070312</v>
+        <v>949.4500122070312</v>
       </c>
       <c r="F15" t="n">
-        <v>972.4456787109375</v>
+        <v>947.2540893554688</v>
       </c>
       <c r="G15" t="n">
-        <v>2235448</v>
+        <v>758276</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B16" t="n">
-        <v>978.9000244140625</v>
+        <v>953.9500122070312</v>
       </c>
       <c r="C16" t="n">
-        <v>1019</v>
+        <v>1018.25</v>
       </c>
       <c r="D16" t="n">
-        <v>883.0999755859375</v>
+        <v>869</v>
       </c>
       <c r="E16" t="n">
-        <v>965.3499755859375</v>
+        <v>974.7000122070312</v>
       </c>
       <c r="F16" t="n">
-        <v>963.1172485351562</v>
+        <v>972.4456787109375</v>
       </c>
       <c r="G16" t="n">
-        <v>1343727</v>
+        <v>2235448</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B17" t="n">
-        <v>974.9000244140625</v>
+        <v>978.9000244140625</v>
       </c>
       <c r="C17" t="n">
-        <v>987.2000122070312</v>
+        <v>1019</v>
       </c>
       <c r="D17" t="n">
-        <v>868.0999755859375</v>
+        <v>883.0999755859375</v>
       </c>
       <c r="E17" t="n">
-        <v>893.7000122070312</v>
+        <v>965.3499755859375</v>
       </c>
       <c r="F17" t="n">
-        <v>891.633056640625</v>
+        <v>963.1172485351562</v>
       </c>
       <c r="G17" t="n">
-        <v>733768</v>
+        <v>1343727</v>
       </c>
       <c r="H17" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1369,89 +1361,89 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B18" t="n">
-        <v>904</v>
+        <v>974.9000244140625</v>
       </c>
       <c r="C18" t="n">
-        <v>945</v>
+        <v>987.2000122070312</v>
       </c>
       <c r="D18" t="n">
-        <v>847.3499755859375</v>
+        <v>868.0999755859375</v>
       </c>
       <c r="E18" t="n">
-        <v>907.2999877929688</v>
+        <v>893.7000122070312</v>
       </c>
       <c r="F18" t="n">
-        <v>905.2015380859375</v>
+        <v>891.633056640625</v>
       </c>
       <c r="G18" t="n">
-        <v>787472</v>
+        <v>733768</v>
       </c>
       <c r="H18" t="n">
         <v>2023</v>
       </c>
       <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>52</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B19" t="n">
-        <v>910.2000122070312</v>
+        <v>904</v>
       </c>
       <c r="C19" t="n">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>861</v>
+        <v>847.3499755859375</v>
       </c>
       <c r="E19" t="n">
-        <v>889.7000122070312</v>
+        <v>907.2999877929688</v>
       </c>
       <c r="F19" t="n">
-        <v>887.6422729492188</v>
+        <v>905.2015380859375</v>
       </c>
       <c r="G19" t="n">
-        <v>1011308</v>
+        <v>787472</v>
       </c>
       <c r="H19" t="n">
         <v>2023</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B20" t="n">
-        <v>896</v>
+        <v>910.2000122070312</v>
       </c>
       <c r="C20" t="n">
-        <v>1099.75</v>
+        <v>975</v>
       </c>
       <c r="D20" t="n">
-        <v>886.9500122070312</v>
+        <v>861</v>
       </c>
       <c r="E20" t="n">
-        <v>1066.300048828125</v>
+        <v>889.7000122070312</v>
       </c>
       <c r="F20" t="n">
-        <v>1063.833862304688</v>
+        <v>887.6422729492188</v>
       </c>
       <c r="G20" t="n">
-        <v>1746124</v>
+        <v>1011308</v>
       </c>
       <c r="H20" t="n">
         <v>2023</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B21" t="n">
+        <v>896</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1099.75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>886.9500122070312</v>
+      </c>
+      <c r="E21" t="n">
         <v>1066.300048828125</v>
       </c>
-      <c r="C21" t="n">
-        <v>1258.900024414062</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1216.550048828125</v>
-      </c>
       <c r="F21" t="n">
-        <v>1213.736328125</v>
+        <v>1063.833862304688</v>
       </c>
       <c r="G21" t="n">
-        <v>3622311</v>
+        <v>1746124</v>
       </c>
       <c r="H21" t="n">
         <v>2023</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B22" t="n">
-        <v>1207</v>
+        <v>1066.300048828125</v>
       </c>
       <c r="C22" t="n">
-        <v>1358</v>
+        <v>1258.900024414062</v>
       </c>
       <c r="D22" t="n">
-        <v>1181.099975585938</v>
+        <v>1012</v>
       </c>
       <c r="E22" t="n">
-        <v>1272.199951171875</v>
+        <v>1216.550048828125</v>
       </c>
       <c r="F22" t="n">
-        <v>1269.257568359375</v>
+        <v>1213.736328125</v>
       </c>
       <c r="G22" t="n">
-        <v>3288770</v>
+        <v>3622311</v>
       </c>
       <c r="H22" t="n">
         <v>2023</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1634,36 +1626,36 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B23" t="n">
-        <v>1284.800048828125</v>
+        <v>1207</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.949951171875</v>
+        <v>1358</v>
       </c>
       <c r="D23" t="n">
-        <v>1113</v>
+        <v>1181.099975585938</v>
       </c>
       <c r="E23" t="n">
-        <v>1143.900024414062</v>
+        <v>1272.199951171875</v>
       </c>
       <c r="F23" t="n">
-        <v>1141.25439453125</v>
+        <v>1269.257568359375</v>
       </c>
       <c r="G23" t="n">
-        <v>1777407</v>
+        <v>3288770</v>
       </c>
       <c r="H23" t="n">
         <v>2023</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1687,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B24" t="n">
-        <v>1150</v>
+        <v>1284.800048828125</v>
       </c>
       <c r="C24" t="n">
-        <v>1388.949951171875</v>
+        <v>1306.949951171875</v>
       </c>
       <c r="D24" t="n">
-        <v>1134.050048828125</v>
+        <v>1113</v>
       </c>
       <c r="E24" t="n">
-        <v>1315.550048828125</v>
+        <v>1143.900024414062</v>
       </c>
       <c r="F24" t="n">
-        <v>1312.507446289062</v>
+        <v>1141.25439453125</v>
       </c>
       <c r="G24" t="n">
-        <v>3981786</v>
+        <v>1777407</v>
       </c>
       <c r="H24" t="n">
         <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B25" t="n">
-        <v>1309.900024414062</v>
+        <v>1150</v>
       </c>
       <c r="C25" t="n">
-        <v>1368</v>
+        <v>1388.949951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>1224</v>
+        <v>1134.050048828125</v>
       </c>
       <c r="E25" t="n">
-        <v>1233.25</v>
+        <v>1315.550048828125</v>
       </c>
       <c r="F25" t="n">
-        <v>1230.397705078125</v>
+        <v>1312.507446289062</v>
       </c>
       <c r="G25" t="n">
-        <v>1727131</v>
+        <v>3981786</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B26" t="n">
+        <v>1309.900024414062</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E26" t="n">
         <v>1233.25</v>
       </c>
-      <c r="C26" t="n">
-        <v>1268</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1075.599975585938</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1169.699951171875</v>
-      </c>
       <c r="F26" t="n">
-        <v>1169.699951171875</v>
+        <v>1230.397705078125</v>
       </c>
       <c r="G26" t="n">
-        <v>1511951</v>
+        <v>1727131</v>
       </c>
       <c r="H26" t="n">
         <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B27" t="n">
+        <v>1233.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1268</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1075.599975585938</v>
+      </c>
+      <c r="E27" t="n">
         <v>1169.699951171875</v>
       </c>
-      <c r="C27" t="n">
-        <v>1198.900024414062</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1066.449951171875</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1112.75</v>
-      </c>
       <c r="F27" t="n">
-        <v>1112.75</v>
+        <v>1169.699951171875</v>
       </c>
       <c r="G27" t="n">
-        <v>1511775</v>
+        <v>1511951</v>
       </c>
       <c r="H27" t="n">
         <v>2023</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B28" t="n">
-        <v>1123.949951171875</v>
+        <v>1169.699951171875</v>
       </c>
       <c r="C28" t="n">
-        <v>1234.849975585938</v>
+        <v>1198.900024414062</v>
       </c>
       <c r="D28" t="n">
-        <v>1023.5</v>
+        <v>1066.449951171875</v>
       </c>
       <c r="E28" t="n">
-        <v>1122</v>
+        <v>1112.75</v>
       </c>
       <c r="F28" t="n">
-        <v>1122</v>
+        <v>1112.75</v>
       </c>
       <c r="G28" t="n">
-        <v>10700218</v>
+        <v>1511775</v>
       </c>
       <c r="H28" t="n">
         <v>2023</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1952,36 +1944,36 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B29" t="n">
-        <v>1134.800048828125</v>
+        <v>1123.949951171875</v>
       </c>
       <c r="C29" t="n">
-        <v>1187.199951171875</v>
+        <v>1234.849975585938</v>
       </c>
       <c r="D29" t="n">
-        <v>1080</v>
+        <v>1023.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1163.349975585938</v>
+        <v>1122</v>
       </c>
       <c r="F29" t="n">
-        <v>1163.349975585938</v>
+        <v>1122</v>
       </c>
       <c r="G29" t="n">
-        <v>3788161</v>
+        <v>10700218</v>
       </c>
       <c r="H29" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2005,36 +1997,36 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B30" t="n">
-        <v>1166</v>
+        <v>1134.800048828125</v>
       </c>
       <c r="C30" t="n">
-        <v>1166.75</v>
+        <v>1187.199951171875</v>
       </c>
       <c r="D30" t="n">
-        <v>1035</v>
+        <v>1080</v>
       </c>
       <c r="E30" t="n">
-        <v>1114.900024414062</v>
+        <v>1163.349975585938</v>
       </c>
       <c r="F30" t="n">
-        <v>1114.900024414062</v>
+        <v>1163.349975585938</v>
       </c>
       <c r="G30" t="n">
-        <v>3232868</v>
+        <v>3788161</v>
       </c>
       <c r="H30" t="n">
         <v>2024</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B31" t="n">
-        <v>1117.949951171875</v>
+        <v>1166</v>
       </c>
       <c r="C31" t="n">
-        <v>1194</v>
+        <v>1166.75</v>
       </c>
       <c r="D31" t="n">
-        <v>1004.450012207031</v>
+        <v>1035</v>
       </c>
       <c r="E31" t="n">
-        <v>1093.699951171875</v>
+        <v>1114.900024414062</v>
       </c>
       <c r="F31" t="n">
-        <v>1093.699951171875</v>
+        <v>1114.900024414062</v>
       </c>
       <c r="G31" t="n">
-        <v>2862348</v>
+        <v>3232868</v>
       </c>
       <c r="H31" t="n">
         <v>2024</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B32" t="n">
-        <v>1094</v>
+        <v>1117.949951171875</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.5</v>
+        <v>1194</v>
       </c>
       <c r="D32" t="n">
-        <v>1094</v>
+        <v>1004.450012207031</v>
       </c>
       <c r="E32" t="n">
-        <v>1230.849975585938</v>
+        <v>1093.699951171875</v>
       </c>
       <c r="F32" t="n">
-        <v>1230.849975585938</v>
+        <v>1093.699951171875</v>
       </c>
       <c r="G32" t="n">
-        <v>4251650</v>
+        <v>2862348</v>
       </c>
       <c r="H32" t="n">
         <v>2024</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1094</v>
+      </c>
+      <c r="E33" t="n">
         <v>1230.849975585938</v>
       </c>
-      <c r="C33" t="n">
-        <v>1282.949951171875</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1148.099975585938</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1217.25</v>
-      </c>
       <c r="F33" t="n">
-        <v>1217.25</v>
+        <v>1230.849975585938</v>
       </c>
       <c r="G33" t="n">
-        <v>4200191</v>
+        <v>4251650</v>
       </c>
       <c r="H33" t="n">
         <v>2024</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,56 +2214,514 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B34" t="n">
-        <v>1241</v>
+        <v>1230.849975585938</v>
       </c>
       <c r="C34" t="n">
-        <v>1265</v>
+        <v>1282.949951171875</v>
       </c>
       <c r="D34" t="n">
-        <v>1008</v>
+        <v>1148.099975585938</v>
       </c>
       <c r="E34" t="n">
-        <v>1234</v>
+        <v>1217.25</v>
       </c>
       <c r="F34" t="n">
-        <v>1234</v>
+        <v>1217.25</v>
       </c>
       <c r="G34" t="n">
-        <v>1426790</v>
+        <v>4200191</v>
       </c>
       <c r="H34" t="n">
         <v>2024</v>
       </c>
       <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>18</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1234</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1234</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1426790</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
         <v>6</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>22</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1327.26609750699</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1448.965372531849</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1232.461376256491</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1335.19970703125</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>4392083</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>27</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1345.179124082718</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1395.126290729657</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1212.5024629732</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1378.211181640625</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>4057513</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>31</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1380.805828891327</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1819.252687929418</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1349.270809405194</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1738.419189453125</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>7916159</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>35</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1746.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1453.25</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1977.5</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>7803737</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>40</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2184.14990234375</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2142.949951171875</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>5463000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>44</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2362.89990234375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2006.25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2148.85009765625</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>4201820</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>48</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2170.35009765625</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2409.949951171875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1837.550048828125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2385.300048828125</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>10633124</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2384.10009765625</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2644</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2168.64990234375</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>6008729</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2179.949951171875</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2543.14990234375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2038.849975585938</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2440.800048828125</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>5355688</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
